--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3393,6 +3393,74 @@
         <v>-34.602872</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>-468</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Chile 2305</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>807168187</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>-58.399193</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-34.617418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -1084,27 +1084,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/29/2024</t>
+          <t>1/23/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MARCOS SASTRE 4778</t>
+          <t>LACROZE FEDERICO ,AV. /ALT/ 3057</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>780864152</t>
+          <t>778723976</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1119,60 +1119,48 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Fede. Lacroze 3057 cambiar columna 114 efectuar transferencias +fuente y cdo. Base corroida</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.509469</v>
+        <v>-58.44873</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.616197</v>
+        <v>-34.576501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>2/29/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 3711</t>
+          <t>MARCOS SASTRE 4778</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>800554622</t>
+          <t>780864152</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1187,7 +1175,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1211,36 +1199,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.416117</v>
+        <v>-58.509469</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.590942</v>
+        <v>-34.616197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-246</t>
+          <t>-227</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MERCEDES /ALT/ 234</t>
+          <t>PARAGUAY /ALT/ 3711</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>800554622</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1255,12 +1243,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortada en la base. </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1279,36 +1267,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.484194</v>
+        <v>-58.416117</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.631512</v>
+        <v>-34.590942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>-246</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/3/2024</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 790</t>
+          <t>MERCEDES /ALT/ 234</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802309158</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1323,7 +1311,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cortada en la base. </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1347,36 +1335,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.440106</v>
+        <v>-58.484194</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.609041</v>
+        <v>-34.631512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/6/2025</t>
+          <t>1/3/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ROOSEVELT FRANKLIN D. 3088</t>
+          <t>ACOYTE AV. 790</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802352283</t>
+          <t>802309158</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1391,7 +1379,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1406,7 +1394,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1415,36 +1403,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.466931</v>
+        <v>-58.440106</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.561312</v>
+        <v>-34.609041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-259</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/20/2025</t>
+          <t>1/6/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 2113</t>
+          <t>ROOSEVELT FRANKLIN D. 3088</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802814939</t>
+          <t>802352283</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1459,7 +1447,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1483,36 +1471,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.459556</v>
+        <v>-58.466931</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.563554</v>
+        <v>-34.561312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>-259</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/20/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DEL SIGNO /ALT/ 4089</t>
+          <t>MOLDES /ALT/ 2113</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802843277</t>
+          <t>802814939</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1527,7 +1515,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
+          <t>Cambiar columna picada en base</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1551,36 +1539,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.418106</v>
+        <v>-58.459556</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.590087</v>
+        <v>-34.563554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>-262</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/7/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GOMEZ, VALENTIN 3734</t>
+          <t>DEL SIGNO /ALT/ 4089</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803607500</t>
+          <t>802843277</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1595,7 +1583,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1610,7 +1598,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1619,36 +1607,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.417382</v>
+        <v>-58.418106</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.604692</v>
+        <v>-34.590087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/11/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BILLINGHURST 1294</t>
+          <t>GOMEZ, VALENTIN 3734</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803607561</t>
+          <t>803607500</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1663,7 +1651,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1678,7 +1666,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1687,36 +1675,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.413672</v>
+        <v>-58.417382</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.594936</v>
+        <v>-34.604692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>2/11/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONVENCION 1948</t>
+          <t>BILLINGHURST 1294</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803607816</t>
+          <t>803607561</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1731,7 +1719,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1746,7 +1734,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1755,16 +1743,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440588</v>
+        <v>-58.413672</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.579828</v>
+        <v>-34.594936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1774,17 +1762,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Venezuela 1970</t>
+          <t>CONVENCION 1948</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>803607816</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1799,7 +1787,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1814,7 +1802,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1823,36 +1811,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.394162</v>
+        <v>-58.440588</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.615145</v>
+        <v>-34.579828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1501</t>
+          <t>Venezuela 1970</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1867,12 +1855,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1882,7 +1870,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1891,10 +1879,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.478517</v>
+        <v>-58.394162</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.58284</v>
+        <v>-34.615145</v>
       </c>
     </row>
     <row r="23">

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3449,6 +3449,74 @@
         <v>-34.617418</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6132</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6/12/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MERCEDES 370</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>807458394</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">con fuente TLC </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-58.484808</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.630188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,6 +3517,74 @@
         <v>-34.630188</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>-479</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6/17/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>La pampa 2640</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>807525256</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>-58.45647</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-34.566231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>-479</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arenales 2872</t>
+          <t>La pampa 2640</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>791764734</t>
+          <t>807525256</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
@@ -563,36 +567,36 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.405826</v>
+        <v>-58.45647</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.591241</v>
+        <v>-34.566231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>6132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MANUEL UGARTE 2202</t>
+          <t>MERCEDES 370</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791764774</t>
+          <t>807458394</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +609,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">con fuente TLC </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>1</t>
@@ -621,38 +629,42 @@
           <t>Fuente TLC</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M3" t="n">
-        <v>-58.459733</v>
+        <v>-58.484808</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.555444</v>
+        <v>-34.630188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>-468</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MENDOZA 2788</t>
+          <t>Chile 2305</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>791898346</t>
+          <t>807168187</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -665,7 +677,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>1</t>
@@ -681,38 +697,42 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M4" t="n">
-        <v>-58.460999</v>
+        <v>-58.399193</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.563191</v>
+        <v>-34.617418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUPERI  3880</t>
+          <t>Nueva York 3079</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>792041715</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -727,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inclinado y oxidado</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -737,7 +757,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -745,38 +765,42 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M5" t="n">
-        <v>-58.479506</v>
+        <v>-58.499797</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.552214</v>
+        <v>-34.592753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/14/2024</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALBERTI 133</t>
+          <t>Lavalleja 122</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>793318015</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -791,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Base oxidada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -801,46 +825,50 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M6" t="n">
-        <v>-58.401686</v>
+        <v>-58.437577</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.611393</v>
+        <v>-34.602872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/18/2024</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOGOTA 306</t>
+          <t>CORRIENTES AV. 4668</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796748129</t>
+          <t>807044140</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -855,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Traspaso y retiro</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -873,38 +901,42 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M7" t="n">
-        <v>-58.436044</v>
+        <v>-58.431438</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.614031</v>
+        <v>-34.602208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA DE LA SALLE AV. 2351</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798513885</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -919,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base podrida</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -929,12 +961,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -943,36 +975,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.472318</v>
+        <v>-58.416562</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.655576</v>
+        <v>-34.590589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>-423</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ZABALA 2231</t>
+          <t>Diaz colodrero 2535</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799251767</t>
+          <t>806926583</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -987,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Direccion real - Zabala 2301 casi esq Arcos</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -997,46 +1029,50 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.447574</v>
+        <v>-58.486325</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.566487</v>
+        <v>-34.572651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>5833</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI, LUIS, DR. 949</t>
+          <t>YAPEYU 50</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>800725468</t>
+          <t>806926450</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1051,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1075,36 +1111,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.455074</v>
+        <v>-58.422232</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.604645</v>
+        <v>-34.612466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>5817</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/23/2024</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LACROZE FEDERICO ,AV. /ALT/ 3057</t>
+          <t>TROILO, ANIBAL 933</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>778723976</t>
+          <t>806926350</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1119,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fede. Lacroze 3057 cambiar columna 114 efectuar transferencias +fuente y cdo. Base corroida</t>
+          <t>Nodo</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1127,40 +1163,52 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.44873</v>
+        <v>-58.43202</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.576501</v>
+        <v>-34.60343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>5713</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/29/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MARCOS SASTRE 4778</t>
+          <t>RIVERA, PEDRO I., DR. 3944</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>780864152</t>
+          <t>805579061</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1175,12 +1223,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1199,36 +1247,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.509469</v>
+        <v>-58.476483</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.616197</v>
+        <v>-34.565605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>5729</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 3711</t>
+          <t>AGUERO 79</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>800554622</t>
+          <t>805579072</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1243,22 +1291,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1267,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.416117</v>
+        <v>-58.413111</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.590942</v>
+        <v>-34.60961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-246</t>
+          <t>804736450</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MERCEDES /ALT/ 234</t>
+          <t>Franklin D. Roosevelt 2696</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>804736450</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1311,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortada en la base. </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1335,36 +1383,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.484194</v>
+        <v>-58.463151</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631512</v>
+        <v>-34.559137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>804736423</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/3/2024</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 790</t>
+          <t>Franklin D. Roosevelt 2738</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802309158</t>
+          <t>804736423</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1403,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.440106</v>
+        <v>-58.463692</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.609041</v>
+        <v>-34.559449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>804736388</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/6/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ROOSEVELT FRANKLIN D. 3088</t>
+          <t>Santos Dumont 2654</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802352283</t>
+          <t>804736388</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1462,7 +1510,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1471,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.466931</v>
+        <v>-58.440558</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.561312</v>
+        <v>-34.575535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-259</t>
+          <t>5821</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/20/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 2113</t>
+          <t>PICHINCHA 712</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802814939</t>
+          <t>804663643</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1515,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1530,7 +1578,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1539,36 +1587,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.459556</v>
+        <v>-58.399006</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.563554</v>
+        <v>-34.617696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DEL SIGNO /ALT/ 4089</t>
+          <t>RIVERA, PEDRO I., DR. 4082</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802843277</t>
+          <t>804497899</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1583,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1598,7 +1646,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1607,36 +1655,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.418106</v>
+        <v>-58.47767</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.590087</v>
+        <v>-34.566328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5473</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/7/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GOMEZ, VALENTIN 3734</t>
+          <t>MILLER 3916</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803607500</t>
+          <t>804497917</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1651,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1666,45 +1714,45 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.417382</v>
+        <v>-58.492023</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.604692</v>
+        <v>-34.557604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>804427436</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/11/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BILLINGHURST 1294</t>
+          <t>Blanco Encalada 3092</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803607561</t>
+          <t>804427436</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1719,12 +1767,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1734,7 +1782,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1743,36 +1791,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.413672</v>
+        <v>-58.465611</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.594936</v>
+        <v>-34.563133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>5137</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONVENCION 1948</t>
+          <t>LOPEZ, CARLOS ANTONIO 3318</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803607816</t>
+          <t>804468450</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1787,7 +1835,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1797,7 +1845,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1811,36 +1859,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.440588</v>
+        <v>-58.5085</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.579828</v>
+        <v>-34.588885</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Venezuela 1970</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1855,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1870,7 +1918,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1879,36 +1927,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.394162</v>
+        <v>-58.441405</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.615145</v>
+        <v>-34.594348</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>804270062</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/21/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GUERRICO, MARTIN, CTTE. 5702</t>
+          <t>Sanchez de Loria 1889</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804018116</t>
+          <t>804270062</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1923,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar Rienda</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1943,14 +1991,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.459802</v>
+        <v>-58.41159</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.688031</v>
+        <v>-34.632765</v>
       </c>
     </row>
     <row r="24">
@@ -2092,27 +2140,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>804270062</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/21/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sanchez de Loria 1889</t>
+          <t>GUERRICO, MARTIN, CTTE. 5702</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804270062</t>
+          <t>804018116</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2127,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reparar Rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2147,40 +2195,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.41159</v>
+        <v>-58.459802</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.632765</v>
+        <v>-34.688031</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>CONVENCION 1948</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>803607816</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2210,7 +2258,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2219,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.441405</v>
+        <v>-58.440588</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.594348</v>
+        <v>-34.579828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>804427436</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Blanco Encalada 3092</t>
+          <t>Venezuela 1970</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804427436</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2263,12 +2311,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2278,7 +2326,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2287,36 +2335,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.465611</v>
+        <v>-58.394162</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.563133</v>
+        <v>-34.615145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5137</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>2/11/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3318</t>
+          <t>BILLINGHURST 1294</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804468450</t>
+          <t>803607561</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2341,12 +2389,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2355,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.5085</v>
+        <v>-58.413672</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588885</v>
+        <v>-34.594936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 4082</t>
+          <t>GOMEZ, VALENTIN 3734</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804497899</t>
+          <t>803607500</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2399,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2423,36 +2471,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.47767</v>
+        <v>-58.417382</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.566328</v>
+        <v>-34.604692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>-262</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MILLER 3916</t>
+          <t>DEL SIGNO /ALT/ 4089</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804497917</t>
+          <t>802843277</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2467,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2487,40 +2535,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.492023</v>
+        <v>-58.418106</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.557604</v>
+        <v>-34.590087</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5821</t>
+          <t>-259</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>1/20/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PICHINCHA 712</t>
+          <t>MOLDES /ALT/ 2113</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804663643</t>
+          <t>802814939</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2535,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en base</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2550,7 +2598,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2559,26 +2607,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.399006</v>
+        <v>-58.459556</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.617696</v>
+        <v>-34.563554</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>804736450</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>1/6/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt 2696</t>
+          <t>ROOSEVELT FRANKLIN D. 3088</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2588,7 +2636,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804736450</t>
+          <t>802352283</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2603,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2618,7 +2666,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2627,36 +2675,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.463151</v>
+        <v>-58.466931</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.559137</v>
+        <v>-34.561312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>804736423</t>
+          <t>-246</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt 2738</t>
+          <t>MERCEDES /ALT/ 234</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804736423</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2671,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cortada en la base. </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2695,36 +2743,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.463692</v>
+        <v>-58.484194</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.559449</v>
+        <v>-34.631512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>804736388</t>
+          <t>4162</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Santos Dumont 2654</t>
+          <t>BELAUSTEGUI, LUIS, DR. 949</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804736388</t>
+          <t>800725468</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2739,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>base picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2754,7 +2802,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2763,36 +2811,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.440558</v>
+        <v>-58.455074</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.575535</v>
+        <v>-34.604645</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>-227</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 3944</t>
+          <t>PARAGUAY /ALT/ 3711</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805579061</t>
+          <t>800554622</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2807,12 +2855,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2831,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.476483</v>
+        <v>-58.416117</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.565605</v>
+        <v>-34.590942</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5729</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AGUERO 79</t>
+          <t>ZABALA 2231</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805579072</t>
+          <t>799251767</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2875,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Direccion real - Zabala 2301 casi esq Arcos</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2893,42 +2941,38 @@
           <t>Fuente TLC</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.413111</v>
+        <v>-58.447574</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.60961</v>
+        <v>-34.566487</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5817</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>10/24/2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TROILO, ANIBAL 933</t>
+          <t>SAN JUAN BAUTISTA DE LA SALLE AV. 2351</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926350</t>
+          <t>798513885</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2943,7 +2987,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nodo</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2953,12 +2997,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2967,36 +3011,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.43202</v>
+        <v>-58.472318</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.60343</v>
+        <v>-34.655576</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5833</t>
+          <t>3420</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>9/18/2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YAPEYU 50</t>
+          <t>BOGOTA 306</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926450</t>
+          <t>796748129</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3011,7 +3055,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso y retiro</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3021,7 +3065,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3029,42 +3073,38 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-58.422232</v>
+        <v>-58.436044</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.612466</v>
+        <v>-34.614031</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>8/14/2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>ALBERTI 133</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>793318015</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3079,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Base podrida</t>
+          <t>Base oxidada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3094,35 +3134,31 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-58.416562</v>
+        <v>-58.401686</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.590589</v>
+        <v>-34.611393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-423</t>
+          <t>2745</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Diaz colodrero 2535</t>
+          <t>SUPERI  3880</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3132,7 +3168,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926583</t>
+          <t>792041715</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3147,7 +3183,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Inclinado y oxidado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3165,42 +3201,38 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>-58.486325</v>
+        <v>-58.479506</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.572651</v>
+        <v>-34.552214</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 4668</t>
+          <t>MENDOZA 2788</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044140</t>
+          <t>791898346</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3213,11 +3245,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>1</t>
@@ -3225,7 +3253,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3233,42 +3261,38 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>-58.431438</v>
+        <v>-58.460999</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.602208</v>
+        <v>-34.563191</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nueva York 3079</t>
+          <t>Arenales 2872</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>791764734</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3281,11 +3305,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>1</t>
@@ -3293,7 +3313,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3303,40 +3323,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.499797</v>
+        <v>-58.405826</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.592753</v>
+        <v>-34.591241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lavalleja 122</t>
+          <t>MANUEL UGARTE 2202</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>791764774</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3349,11 +3369,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
@@ -3361,50 +3377,46 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>-58.437577</v>
+        <v>-58.459733</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602872</v>
+        <v>-34.555444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-468</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>2/29/2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chile 2305</t>
+          <t>MARCOS SASTRE 4778</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807168187</t>
+          <t>780864152</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3419,12 +3431,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3439,40 +3451,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.399193</v>
+        <v>-58.509469</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.617418</v>
+        <v>-34.616197</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>1/23/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MERCEDES 370</t>
+          <t>LACROZE FEDERICO ,AV. /ALT/ 3057</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807458394</t>
+          <t>778723976</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3487,7 +3499,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">con fuente TLC </t>
+          <t>Fede. Lacroze 3057 cambiar columna 114 efectuar transferencias +fuente y cdo. Base corroida</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3495,52 +3507,40 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>-58.484808</v>
+        <v>-58.44873</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.630188</v>
+        <v>-34.576501</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-479</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>1/3/2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La pampa 2640</t>
+          <t>ACOYTE AV. 790</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807525256</t>
+          <t>802309158</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.45647</v>
+        <v>-58.440106</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.566231</v>
+        <v>-34.609041</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-479</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>La pampa 2640</t>
+          <t>Arenales 2872</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>807525256</t>
+          <t>791764734</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,11 +541,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Cambiar columna 114 base corroida</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
@@ -567,36 +563,36 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.45647</v>
+        <v>-58.405826</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.566231</v>
+        <v>-34.591241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>7/19/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MERCEDES 370</t>
+          <t>MANUEL UGARTE 2202</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807458394</t>
+          <t>791764774</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -609,11 +605,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">con fuente TLC </t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>1</t>
@@ -629,42 +621,38 @@
           <t>Fuente TLC</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.484808</v>
+        <v>-58.459733</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.630188</v>
+        <v>-34.555444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-468</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chile 2305</t>
+          <t>MENDOZA 2788</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807168187</t>
+          <t>791898346</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,11 +665,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>1</t>
@@ -697,42 +681,38 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.399193</v>
+        <v>-58.460999</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.617418</v>
+        <v>-34.563191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>2745</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nueva York 3079</t>
+          <t>SUPERI  3880</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>792041715</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +727,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Inclinado y oxidado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -757,7 +737,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -765,42 +745,38 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.499797</v>
+        <v>-58.479506</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.592753</v>
+        <v>-34.552214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>8/14/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lavalleja 122</t>
+          <t>ALBERTI 133</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>793318015</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,7 +791,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Base oxidada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -825,50 +801,46 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.437577</v>
+        <v>-58.401686</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.602872</v>
+        <v>-34.611393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>3420</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>9/18/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 4668</t>
+          <t>BOGOTA 306</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>807044140</t>
+          <t>796748129</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -883,7 +855,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Traspaso y retiro</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -901,42 +873,38 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.431438</v>
+        <v>-58.436044</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.602208</v>
+        <v>-34.614031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>10/24/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>SAN JUAN BAUTISTA DE LA SALLE AV. 2351</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>798513885</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +919,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Base podrida</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,12 +929,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -975,36 +943,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.416562</v>
+        <v>-58.472318</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.590589</v>
+        <v>-34.655576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-423</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Diaz colodrero 2535</t>
+          <t>ZABALA 2231</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>806926583</t>
+          <t>799251767</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +987,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Direccion real - Zabala 2301 casi esq Arcos</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1029,50 +997,46 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.486325</v>
+        <v>-58.447574</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.572651</v>
+        <v>-34.566487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5833</t>
+          <t>4162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>YAPEYU 50</t>
+          <t>BELAUSTEGUI, LUIS, DR. 949</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>806926450</t>
+          <t>800725468</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,7 +1051,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>base picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1111,36 +1075,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.422232</v>
+        <v>-58.455074</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.612466</v>
+        <v>-34.604645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5817</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>1/23/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TROILO, ANIBAL 933</t>
+          <t>LACROZE FEDERICO ,AV. /ALT/ 3057</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>806926350</t>
+          <t>778723976</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1155,7 +1119,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nodo</t>
+          <t>Fede. Lacroze 3057 cambiar columna 114 efectuar transferencias +fuente y cdo. Base corroida</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1163,52 +1127,40 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.43202</v>
+        <v>-58.44873</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.60343</v>
+        <v>-34.576501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>2/29/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 3944</t>
+          <t>MARCOS SASTRE 4778</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>805579061</t>
+          <t>780864152</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,12 +1175,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1247,36 +1199,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.476483</v>
+        <v>-58.509469</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.565605</v>
+        <v>-34.616197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5729</t>
+          <t>-227</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AGUERO 79</t>
+          <t>PARAGUAY /ALT/ 3711</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>805579072</t>
+          <t>800554622</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,22 +1243,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1315,36 +1267,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.413111</v>
+        <v>-58.416117</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.60961</v>
+        <v>-34.590942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>804736450</t>
+          <t>-246</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt 2696</t>
+          <t>MERCEDES /ALT/ 234</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804736450</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1311,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cortada en la base. </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1383,36 +1335,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.463151</v>
+        <v>-58.484194</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.559137</v>
+        <v>-34.631512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>804736423</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>1/3/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt 2738</t>
+          <t>ACOYTE AV. 790</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804736423</t>
+          <t>802309158</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1451,36 +1403,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.463692</v>
+        <v>-58.440106</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.559449</v>
+        <v>-34.609041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>804736388</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>1/6/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Santos Dumont 2654</t>
+          <t>ROOSEVELT FRANKLIN D. 3088</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804736388</t>
+          <t>802352283</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1510,7 +1462,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1519,36 +1471,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.440558</v>
+        <v>-58.466931</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.575535</v>
+        <v>-34.561312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5821</t>
+          <t>-259</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>1/20/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PICHINCHA 712</t>
+          <t>MOLDES /ALT/ 2113</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804663643</t>
+          <t>802814939</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1515,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en base</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1578,7 +1530,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1587,36 +1539,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.399006</v>
+        <v>-58.459556</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.617696</v>
+        <v>-34.563554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>-262</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 4082</t>
+          <t>DEL SIGNO /ALT/ 4089</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497899</t>
+          <t>802843277</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,7 +1583,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1646,7 +1598,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1655,36 +1607,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.47767</v>
+        <v>-58.418106</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.566328</v>
+        <v>-34.590087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MILLER 3916</t>
+          <t>GOMEZ, VALENTIN 3734</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804497917</t>
+          <t>803607500</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,7 +1651,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1714,45 +1666,45 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.492023</v>
+        <v>-58.417382</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.557604</v>
+        <v>-34.604692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>804427436</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>2/11/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Blanco Encalada 3092</t>
+          <t>BILLINGHURST 1294</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804427436</t>
+          <t>803607561</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,12 +1719,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1782,7 +1734,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1791,36 +1743,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.465611</v>
+        <v>-58.413672</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.563133</v>
+        <v>-34.594936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5137</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3318</t>
+          <t>CONVENCION 1948</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804468450</t>
+          <t>803607816</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,7 +1787,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1845,7 +1797,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1859,36 +1811,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.5085</v>
+        <v>-58.440588</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.588885</v>
+        <v>-34.579828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>Venezuela 1970</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,7 +1855,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1918,7 +1870,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1927,36 +1879,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.441405</v>
+        <v>-58.394162</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.594348</v>
+        <v>-34.615145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>804270062</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/21/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sanchez de Loria 1889</t>
+          <t>GUERRICO, MARTIN, CTTE. 5702</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804270062</t>
+          <t>804018116</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1923,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Reparar Rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1991,14 +1943,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.41159</v>
+        <v>-58.459802</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.632765</v>
+        <v>-34.688031</v>
       </c>
     </row>
     <row r="24">
@@ -2140,27 +2092,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>804270062</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/21/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GUERRICO, MARTIN, CTTE. 5702</t>
+          <t>Sanchez de Loria 1889</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804018116</t>
+          <t>804270062</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2127,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar Rienda</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2195,40 +2147,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.459802</v>
+        <v>-58.41159</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.688031</v>
+        <v>-34.632765</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CONVENCION 1948</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803607816</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2258,7 +2210,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2267,36 +2219,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.440588</v>
+        <v>-58.441405</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.579828</v>
+        <v>-34.594348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>804427436</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Venezuela 1970</t>
+          <t>Blanco Encalada 3092</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>804427436</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,12 +2263,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2326,7 +2278,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2335,36 +2287,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.394162</v>
+        <v>-58.465611</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.615145</v>
+        <v>-34.563133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>5137</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/11/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BILLINGHURST 1294</t>
+          <t>LOPEZ, CARLOS ANTONIO 3318</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803607561</t>
+          <t>804468450</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2389,12 +2341,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2403,36 +2355,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.413672</v>
+        <v>-58.5085</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594936</v>
+        <v>-34.588885</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2/7/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GOMEZ, VALENTIN 3734</t>
+          <t>RIVERA, PEDRO I., DR. 4082</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803607500</t>
+          <t>804497899</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2471,36 +2423,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.417382</v>
+        <v>-58.47767</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604692</v>
+        <v>-34.566328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>5473</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DEL SIGNO /ALT/ 4089</t>
+          <t>MILLER 3916</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>802843277</t>
+          <t>804497917</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2467,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2535,40 +2487,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.418106</v>
+        <v>-58.492023</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.590087</v>
+        <v>-34.557604</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-259</t>
+          <t>5821</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1/20/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 2113</t>
+          <t>PICHINCHA 712</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>802814939</t>
+          <t>804663643</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2535,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2598,7 +2550,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,26 +2559,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.459556</v>
+        <v>-58.399006</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.563554</v>
+        <v>-34.617696</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>804736450</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1/6/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ROOSEVELT FRANKLIN D. 3088</t>
+          <t>Franklin D. Roosevelt 2696</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2636,7 +2588,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>802352283</t>
+          <t>804736450</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2603,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2666,7 +2618,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2675,36 +2627,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.466931</v>
+        <v>-58.463151</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.561312</v>
+        <v>-34.559137</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-246</t>
+          <t>804736423</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MERCEDES /ALT/ 234</t>
+          <t>Franklin D. Roosevelt 2738</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>804736423</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2671,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortada en la base. </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2743,36 +2695,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.484194</v>
+        <v>-58.463692</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.631512</v>
+        <v>-34.559449</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>804736388</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI, LUIS, DR. 949</t>
+          <t>Santos Dumont 2654</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>800725468</t>
+          <t>804736388</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2739,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>base picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2802,7 +2754,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2811,36 +2763,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.455074</v>
+        <v>-58.440558</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.604645</v>
+        <v>-34.575535</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>5713</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 3711</t>
+          <t>RIVERA, PEDRO I., DR. 3944</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>800554622</t>
+          <t>805579061</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,12 +2807,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2879,36 +2831,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.416117</v>
+        <v>-58.476483</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.590942</v>
+        <v>-34.565605</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>5729</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZABALA 2231</t>
+          <t>AGUERO 79</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>799251767</t>
+          <t>805579072</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2875,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Direccion real - Zabala 2301 casi esq Arcos</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2941,38 +2893,42 @@
           <t>Fuente TLC</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M37" t="n">
-        <v>-58.447574</v>
+        <v>-58.413111</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.566487</v>
+        <v>-34.60961</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>5817</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/24/2024</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA DE LA SALLE AV. 2351</t>
+          <t>TROILO, ANIBAL 933</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>798513885</t>
+          <t>806926350</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2987,7 +2943,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Nodo</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2997,12 +2953,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3011,36 +2967,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.472318</v>
+        <v>-58.43202</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.655576</v>
+        <v>-34.60343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>5833</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9/18/2024</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BOGOTA 306</t>
+          <t>YAPEYU 50</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>796748129</t>
+          <t>806926450</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3055,7 +3011,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Traspaso y retiro</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3065,7 +3021,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3073,38 +3029,42 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M39" t="n">
-        <v>-58.436044</v>
+        <v>-58.422232</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.614031</v>
+        <v>-34.612466</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8/14/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALBERTI 133</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>793318015</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3079,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Base oxidada</t>
+          <t>Base podrida</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3134,31 +3094,35 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M40" t="n">
-        <v>-58.401686</v>
+        <v>-58.416562</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.611393</v>
+        <v>-34.590589</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>-423</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SUPERI  3880</t>
+          <t>Diaz colodrero 2535</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3168,7 +3132,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>792041715</t>
+          <t>806926583</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3183,7 +3147,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Inclinado y oxidado</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3201,28 +3165,32 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M41" t="n">
-        <v>-58.479506</v>
+        <v>-58.486325</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.552214</v>
+        <v>-34.572651</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MENDOZA 2788</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3232,7 +3200,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>791898346</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3245,7 +3213,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>1</t>
@@ -3261,38 +3233,42 @@
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M42" t="n">
-        <v>-58.460999</v>
+        <v>-58.46522</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.563191</v>
+        <v>-34.556786</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arenales 2872</t>
+          <t>CORRIENTES AV. 4668</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>791764734</t>
+          <t>807044140</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3305,7 +3281,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>1</t>
@@ -3313,7 +3293,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3327,36 +3307,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.405826</v>
+        <v>-58.431438</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.591241</v>
+        <v>-34.602208</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7/19/2024</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MANUEL UGARTE 2202</t>
+          <t>Nueva York 3079</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>791764774</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3369,7 +3349,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
@@ -3377,46 +3361,50 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M44" t="n">
-        <v>-58.459733</v>
+        <v>-58.499797</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.555444</v>
+        <v>-34.592753</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2/29/2024</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MARCOS SASTRE 4778</t>
+          <t>Lavalleja 122</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>780864152</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3436,12 +3424,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3455,36 +3443,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.509469</v>
+        <v>-58.437577</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.616197</v>
+        <v>-34.602872</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-468</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/23/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LACROZE FEDERICO ,AV. /ALT/ 3057</t>
+          <t>Chile 2305</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>778723976</t>
+          <t>807168187</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3499,7 +3487,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fede. Lacroze 3057 cambiar columna 114 efectuar transferencias +fuente y cdo. Base corroida</t>
+          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3507,40 +3495,52 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>-58.44873</v>
+        <v>-58.399193</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576501</v>
+        <v>-34.617418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>6132</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1/3/2024</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 790</t>
+          <t>MERCEDES 370</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>802309158</t>
+          <t>807458394</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">con fuente TLC </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3570,19 +3570,87 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>-58.484808</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-34.630188</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>-479</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>6/17/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>La pampa 2640</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>807525256</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>-58.440106</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-34.609041</v>
+      <c r="M48" t="n">
+        <v>-58.45647</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-34.566231</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,6 +3653,70 @@
         <v>-34.566231</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>-484</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Conde 2319</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>807605771</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.467271</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.56515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,27 +3180,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>CORRIENTES AV. 4668</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044140</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3239,36 +3239,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.46522</v>
+        <v>-58.431438</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.556786</v>
+        <v>-34.602208</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 4668</t>
+          <t>Nueva York 3079</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044140</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3303,20 +3303,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.431438</v>
+        <v>-58.499797</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.602208</v>
+        <v>-34.592753</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nueva York 3079</t>
+          <t>Lavalleja 122</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3371,40 +3371,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.499797</v>
+        <v>-58.437577</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.592753</v>
+        <v>-34.602872</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>-468</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lavalleja 122</t>
+          <t>Chile 2305</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>807168187</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3439,40 +3439,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.437577</v>
+        <v>-58.399193</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.602872</v>
+        <v>-34.617418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-468</t>
+          <t>6132</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chile 2305</t>
+          <t>MERCEDES 370</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807168187</t>
+          <t>807458394</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
+          <t xml:space="preserve">con fuente TLC </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3502,45 +3502,45 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.399193</v>
+        <v>-58.484808</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.617418</v>
+        <v>-34.630188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>-479</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MERCEDES 370</t>
+          <t>La pampa 2640</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807458394</t>
+          <t>807525256</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">con fuente TLC </t>
+          <t>Cambiar columna 114 base corroida</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3579,26 +3579,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.484808</v>
+        <v>-58.45647</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.630188</v>
+        <v>-34.566231</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-479</t>
+          <t>-484</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La pampa 2640</t>
+          <t>Conde 2319</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807525256</t>
+          <t>807605771</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3621,11 +3621,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Cambiar columna 114 base corroida</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>1</t>
@@ -3638,7 +3634,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3647,73 +3643,9 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.45647</v>
+        <v>-58.467271</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.566231</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-484</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>6/18/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Conde 2319</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>807605771</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>GESTION TELECENTRO</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.467271</v>
-      </c>
-      <c r="N49" t="n">
         <v>-34.56515</v>
       </c>
     </row>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3649,6 +3649,70 @@
         <v>-34.56515</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MATHEU 727</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.400169</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.617784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -3670,7 +3670,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>807763063</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>GESTION TELECENTRO</t>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,7 +3044,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-419</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Juana Azurduy 1520</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926532</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Base podrida</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3103,16 +3103,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.416562</v>
+        <v>-58.458478</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.590589</v>
+        <v>-34.546285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-423</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3122,17 +3122,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Diaz colodrero 2535</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926583</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Base podrida</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3171,36 +3171,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.486325</v>
+        <v>-58.416562</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.572651</v>
+        <v>-34.590589</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>-423</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 4668</t>
+          <t>Diaz colodrero 2535</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044140</t>
+          <t>806926583</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3239,36 +3239,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.431438</v>
+        <v>-58.486325</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.602208</v>
+        <v>-34.572651</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nueva York 3079</t>
+          <t>CORRIENTES AV. 4668</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>807044140</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3303,20 +3303,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.499797</v>
+        <v>-58.431438</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.592753</v>
+        <v>-34.602208</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lavalleja 122</t>
+          <t>Nueva York 3079</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3371,40 +3371,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.437577</v>
+        <v>-58.499797</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602872</v>
+        <v>-34.592753</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-468</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chile 2305</t>
+          <t>Lavalleja 122</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807168187</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3439,40 +3439,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.399193</v>
+        <v>-58.437577</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.617418</v>
+        <v>-34.602872</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>-468</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MERCEDES 370</t>
+          <t>Chile 2305</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807458394</t>
+          <t>807168187</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">con fuente TLC </t>
+          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3502,45 +3502,45 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.484808</v>
+        <v>-58.399193</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.630188</v>
+        <v>-34.617418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-479</t>
+          <t>6132</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La pampa 2640</t>
+          <t>MERCEDES 370</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807525256</t>
+          <t>807458394</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida</t>
+          <t xml:space="preserve">con fuente TLC </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3579,26 +3579,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.45647</v>
+        <v>-58.484808</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.566231</v>
+        <v>-34.630188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-484</t>
+          <t>-479</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Conde 2319</t>
+          <t>La pampa 2640</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807605771</t>
+          <t>807525256</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3621,7 +3621,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>1</t>
@@ -3634,7 +3638,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3643,77 +3647,141 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.467271</v>
+        <v>-58.45647</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.56515</v>
+        <v>-34.566231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>-484</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Conde 2319</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>807605771</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.467271</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.56515</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>6076</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>6/24/2025</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>MATHEU 727</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>807763063</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>GESTION TELECENTRO</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M50" t="n">
         <v>-58.400169</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N50" t="n">
         <v>-34.617784</v>
       </c>
     </row>

--- a/mapa_interactivo_GESTION_TELECENTRO.xlsx
+++ b/mapa_interactivo_GESTION_TELECENTRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,17 +1208,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>-148</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 3711</t>
+          <t>CARRANZA ANGEL J /ALT/ 2252</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>800554622</t>
+          <t>798311488</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>columna teco nodo tlc</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1267,36 +1267,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.416117</v>
+        <v>-58.433532</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.590942</v>
+        <v>-34.578254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-246</t>
+          <t>-227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MERCEDES /ALT/ 234</t>
+          <t>PARAGUAY /ALT/ 3711</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>800554622</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortada en la base. </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1335,36 +1335,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.484194</v>
+        <v>-58.416117</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631512</v>
+        <v>-34.590942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>-246</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/3/2024</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 790</t>
+          <t>MERCEDES /ALT/ 234</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802309158</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cortada en la base. </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1403,36 +1403,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.440106</v>
+        <v>-58.484194</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.609041</v>
+        <v>-34.631512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/6/2025</t>
+          <t>1/3/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ROOSEVELT FRANKLIN D. 3088</t>
+          <t>ACOYTE AV. 790</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802352283</t>
+          <t>802309158</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1471,36 +1471,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.466931</v>
+        <v>-58.440106</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.561312</v>
+        <v>-34.609041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-259</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/20/2025</t>
+          <t>1/6/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 2113</t>
+          <t>ROOSEVELT FRANKLIN D. 3088</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802814939</t>
+          <t>802352283</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1539,36 +1539,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.459556</v>
+        <v>-58.466931</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.563554</v>
+        <v>-34.561312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-262</t>
+          <t>-259</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/20/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DEL SIGNO /ALT/ 4089</t>
+          <t>MOLDES /ALT/ 2113</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802843277</t>
+          <t>802814939</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
+          <t>Cambiar columna picada en base</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1607,36 +1607,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.418106</v>
+        <v>-58.459556</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.590087</v>
+        <v>-34.563554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>-262</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/7/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GOMEZ, VALENTIN 3734</t>
+          <t>DEL SIGNO /ALT/ 4089</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803607500</t>
+          <t>802843277</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Del signo 4089 columna rota con cisco de TC Y HGD NUESTRO Y cdo de Tc</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1675,36 +1675,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.417382</v>
+        <v>-58.418106</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.604692</v>
+        <v>-34.590087</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/11/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BILLINGHURST 1294</t>
+          <t>GOMEZ, VALENTIN 3734</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803607561</t>
+          <t>803607500</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1743,36 +1743,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.413672</v>
+        <v>-58.417382</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.594936</v>
+        <v>-34.604692</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/18/2025</t>
+          <t>2/11/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONVENCION 1948</t>
+          <t>BILLINGHURST 1294</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803607816</t>
+          <t>803607561</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.440588</v>
+        <v>-58.413672</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.579828</v>
+        <v>-34.594936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1830,17 +1830,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Venezuela 1970</t>
+          <t>CONVENCION 1948</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803607826</t>
+          <t>803607816</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1879,36 +1879,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.394162</v>
+        <v>-58.440588</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.615145</v>
+        <v>-34.579828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GUERRICO, MARTIN, CTTE. 5702</t>
+          <t>Venezuela 1970</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804018116</t>
+          <t>803607826</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1947,36 +1947,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.459802</v>
+        <v>-58.394162</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.688031</v>
+        <v>-34.615145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5100</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/20/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ARTIGAS MANUEL DE 5266</t>
+          <t>GUERRICO, MARTIN, CTTE. 5702</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804213256</t>
+          <t>804018116</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picadacon nodo TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2015,16 +2015,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.497554</v>
+        <v>-58.459802</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.645077</v>
+        <v>-34.688031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5708</t>
+          <t>ARTIGAS MANUEL DE 5266</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804213263</t>
+          <t>804213256</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Picadacon nodo TLC</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2083,36 +2083,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506068</v>
+        <v>-58.497554</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.576195</v>
+        <v>-34.645077</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>804270062</t>
+          <t>5101</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/21/2025</t>
+          <t>3/20/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sanchez de Loria 1889</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5708</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804270062</t>
+          <t>804213263</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reparar Rienda</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2147,40 +2147,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.41159</v>
+        <v>-58.506068</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.632765</v>
+        <v>-34.576195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>804270062</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/21/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>Sanchez de Loria 1889</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804270062</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar Rienda</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2210,45 +2210,45 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.441405</v>
+        <v>-58.41159</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.594348</v>
+        <v>-34.632765</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>804427436</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Blanco Encalada 3092</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804427436</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.465611</v>
+        <v>-58.441405</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.563133</v>
+        <v>-34.594348</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5137</t>
+          <t>804427436</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3318</t>
+          <t>Blanco Encalada 3092</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804468450</t>
+          <t>804427436</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2331,22 +2331,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2355,36 +2355,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.5085</v>
+        <v>-58.465611</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588885</v>
+        <v>-34.563133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>5137</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 4082</t>
+          <t>LOPEZ, CARLOS ANTONIO 3318</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804497899</t>
+          <t>804468450</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2423,16 +2423,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.47767</v>
+        <v>-58.5085</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.566328</v>
+        <v>-34.588885</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MILLER 3916</t>
+          <t>RIVERA, PEDRO I., DR. 4082</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804497917</t>
+          <t>804497899</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2482,45 +2482,45 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.492023</v>
+        <v>-58.47767</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.557604</v>
+        <v>-34.566328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5821</t>
+          <t>5473</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PICHINCHA 712</t>
+          <t>MILLER 3916</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804663643</t>
+          <t>804497917</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2550,45 +2550,45 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.399006</v>
+        <v>-58.492023</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.617696</v>
+        <v>-34.557604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>804736450</t>
+          <t>5821</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt 2696</t>
+          <t>PICHINCHA 712</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804736450</t>
+          <t>804663643</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2627,16 +2627,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.463151</v>
+        <v>-58.399006</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.559137</v>
+        <v>-34.617696</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>804736423</t>
+          <t>804736450</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt 2738</t>
+          <t>Franklin D. Roosevelt 2696</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804736423</t>
+          <t>804736450</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2695,16 +2695,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.463692</v>
+        <v>-58.463151</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.559449</v>
+        <v>-34.559137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>804736388</t>
+          <t>804736423</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2714,17 +2714,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Santos Dumont 2654</t>
+          <t>Franklin D. Roosevelt 2738</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804736388</t>
+          <t>804736423</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2763,36 +2763,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.440558</v>
+        <v>-58.463692</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.575535</v>
+        <v>-34.559449</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>804736388</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 3944</t>
+          <t>Santos Dumont 2654</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805579061</t>
+          <t>804736388</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2831,16 +2831,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.476483</v>
+        <v>-58.440558</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.565605</v>
+        <v>-34.575535</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5729</t>
+          <t>5713</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2850,17 +2850,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AGUERO 79</t>
+          <t>RIVERA, PEDRO I., DR. 3944</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805579072</t>
+          <t>805579061</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2899,36 +2899,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.413111</v>
+        <v>-58.476483</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.60961</v>
+        <v>-34.565605</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5817</t>
+          <t>5729</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TROILO, ANIBAL 933</t>
+          <t>AGUERO 79</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926350</t>
+          <t>805579072</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nodo</t>
+          <t>Columna Inclinada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2967,26 +2967,26 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.43202</v>
+        <v>-58.413111</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.60343</v>
+        <v>-34.60961</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5833</t>
+          <t>5817</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YAPEYU 50</t>
+          <t>TROILO, ANIBAL 933</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926450</t>
+          <t>806926350</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Nodo</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3035,36 +3035,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.422232</v>
+        <v>-58.43202</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.612466</v>
+        <v>-34.60343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-419</t>
+          <t>5833</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Juana Azurduy 1520</t>
+          <t>YAPEYU 50</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926532</t>
+          <t>806926450</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3103,16 +3103,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.458478</v>
+        <v>-58.422232</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.546285</v>
+        <v>-34.612466</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-419</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3122,17 +3122,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Juana Azurduy 1520</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926532</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Base podrida</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3171,16 +3171,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.416562</v>
+        <v>-58.458478</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590589</v>
+        <v>-34.546285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-423</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3190,17 +3190,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Diaz colodrero 2535</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926583</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Base podrida</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3239,36 +3239,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.486325</v>
+        <v>-58.416562</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.572651</v>
+        <v>-34.590589</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>-423</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 4668</t>
+          <t>Diaz colodrero 2535</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044140</t>
+          <t>806926583</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3307,36 +3307,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.431438</v>
+        <v>-58.486325</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.602208</v>
+        <v>-34.572651</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nueva York 3079</t>
+          <t>CORRIENTES AV. 4668</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044197</t>
+          <t>807044140</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3371,20 +3371,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.499797</v>
+        <v>-58.431438</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.592753</v>
+        <v>-34.602208</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lavalleja 122</t>
+          <t>Nueva York 3079</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044215</t>
+          <t>807044197</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3439,40 +3439,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.437577</v>
+        <v>-58.499797</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.602872</v>
+        <v>-34.592753</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-468</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chile 2305</t>
+          <t>Lavalleja 122</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807168187</t>
+          <t>807044215</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3507,40 +3507,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.399193</v>
+        <v>-58.437577</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.617418</v>
+        <v>-34.602872</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>-468</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MERCEDES 370</t>
+          <t>Chile 2305</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807458394</t>
+          <t>807168187</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">con fuente TLC </t>
+          <t xml:space="preserve">Columna con base podrida nodo propio  telecentro  con rienda pique   sin riesgo de caida al 0 406 25 </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3570,45 +3570,45 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.484808</v>
+        <v>-58.399193</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.630188</v>
+        <v>-34.617418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-479</t>
+          <t>6132</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La pampa 2640</t>
+          <t>MERCEDES 370</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807525256</t>
+          <t>807458394</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida</t>
+          <t xml:space="preserve">con fuente TLC </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3647,26 +3647,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.45647</v>
+        <v>-58.484808</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.566231</v>
+        <v>-34.630188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-484</t>
+          <t>-479</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Conde 2319</t>
+          <t>La pampa 2640</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807605771</t>
+          <t>807525256</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3689,7 +3689,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>1</t>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3711,77 +3715,141 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.467271</v>
+        <v>-58.45647</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.56515</v>
+        <v>-34.566231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>-484</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Conde 2319</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>807605771</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.467271</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.56515</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>6076</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>6/24/2025</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>MATHEU 727</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>807763063</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>GESTION TELECENTRO</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>GESTION TELECENTRO</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Nodo TLC</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M51" t="n">
         <v>-58.400169</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N51" t="n">
         <v>-34.617784</v>
       </c>
     </row>
